--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.3998516317158</v>
+        <v>353.4292232571466</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.1317856176161</v>
+        <v>483.5774554573171</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.4749976569321</v>
+        <v>437.4255018136914</v>
       </c>
       <c r="AD2" t="n">
-        <v>265399.8516317158</v>
+        <v>353429.2232571466</v>
       </c>
       <c r="AE2" t="n">
-        <v>363131.7856176161</v>
+        <v>483577.4554573171</v>
       </c>
       <c r="AF2" t="n">
         <v>8.551748752596955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>328474.9976569321</v>
+        <v>437425.5018136913</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.9387659638947</v>
+        <v>254.4584148563322</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.4096226310972</v>
+        <v>348.1612291192486</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.1291253134072</v>
+        <v>314.9332100595654</v>
       </c>
       <c r="AD3" t="n">
-        <v>185938.7659638947</v>
+        <v>254458.4148563322</v>
       </c>
       <c r="AE3" t="n">
-        <v>254409.6226310972</v>
+        <v>348161.2291192486</v>
       </c>
       <c r="AF3" t="n">
         <v>1.138510965259792e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>230129.1253134072</v>
+        <v>314933.2100595654</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.0837993929057</v>
+        <v>237.5692828665624</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.3479137800364</v>
+        <v>325.05277363494</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.2683935877728</v>
+        <v>294.030193133751</v>
       </c>
       <c r="AD4" t="n">
-        <v>169083.7993929058</v>
+        <v>237569.2828665625</v>
       </c>
       <c r="AE4" t="n">
-        <v>231347.9137800364</v>
+        <v>325052.77363494</v>
       </c>
       <c r="AF4" t="n">
         <v>1.245938384853013e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>209268.3935877728</v>
+        <v>294030.193133751</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.8164833534822</v>
+        <v>224.4802911678671</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.8774278310888</v>
+        <v>307.1438377472343</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.2245645434249</v>
+        <v>277.8304609518128</v>
       </c>
       <c r="AD5" t="n">
-        <v>165816.4833534822</v>
+        <v>224480.291167867</v>
       </c>
       <c r="AE5" t="n">
-        <v>226877.4278310888</v>
+        <v>307143.8377472343</v>
       </c>
       <c r="AF5" t="n">
         <v>1.303042255580993e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.04861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>205224.5645434249</v>
+        <v>277830.4609518128</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.3851855863457</v>
+        <v>213.116313208435</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.2366219128357</v>
+        <v>291.5951417598226</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.0764951899959</v>
+        <v>263.7657106867028</v>
       </c>
       <c r="AD6" t="n">
-        <v>154385.1855863457</v>
+        <v>213116.313208435</v>
       </c>
       <c r="AE6" t="n">
-        <v>211236.6219128357</v>
+        <v>291595.1417598226</v>
       </c>
       <c r="AF6" t="n">
         <v>1.328821039303122e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>191076.4951899959</v>
+        <v>263765.7106867029</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.7403450268215</v>
+        <v>211.4714726489108</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.9860784940517</v>
+        <v>289.3445983410386</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.0407404764424</v>
+        <v>261.7299559731494</v>
       </c>
       <c r="AD7" t="n">
-        <v>152740.3450268215</v>
+        <v>211471.4726489108</v>
       </c>
       <c r="AE7" t="n">
-        <v>208986.0784940517</v>
+        <v>289344.5983410386</v>
       </c>
       <c r="AF7" t="n">
         <v>1.357230587907995e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>189040.7404764424</v>
+        <v>261729.9559731494</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>151.3965405816803</v>
+        <v>210.0261829772843</v>
       </c>
       <c r="AB8" t="n">
-        <v>207.1474259677424</v>
+        <v>287.36708925064</v>
       </c>
       <c r="AC8" t="n">
-        <v>187.3775663666784</v>
+        <v>259.9411775748864</v>
       </c>
       <c r="AD8" t="n">
-        <v>151396.5405816803</v>
+        <v>210026.1829772843</v>
       </c>
       <c r="AE8" t="n">
-        <v>207147.4259677424</v>
+        <v>287367.0892506401</v>
       </c>
       <c r="AF8" t="n">
         <v>1.375781548524446e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.41203703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>187377.5663666784</v>
+        <v>259941.1775748864</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>150.6633690548271</v>
+        <v>209.2930114504312</v>
       </c>
       <c r="AB9" t="n">
-        <v>206.1442683394575</v>
+        <v>286.3639316223552</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.4701486944961</v>
+        <v>259.0337599027041</v>
       </c>
       <c r="AD9" t="n">
-        <v>150663.3690548271</v>
+        <v>209293.0114504312</v>
       </c>
       <c r="AE9" t="n">
-        <v>206144.2683394575</v>
+        <v>286363.9316223552</v>
       </c>
       <c r="AF9" t="n">
         <v>1.384799376601888e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.33101851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>186470.1486944961</v>
+        <v>259033.7599027041</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.7306709435551</v>
+        <v>208.3603133391592</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.8681096358792</v>
+        <v>285.0877729187769</v>
       </c>
       <c r="AC10" t="n">
-        <v>185.3157847864869</v>
+        <v>257.879395994695</v>
       </c>
       <c r="AD10" t="n">
-        <v>149730.6709435551</v>
+        <v>208360.3133391592</v>
       </c>
       <c r="AE10" t="n">
-        <v>204868.1096358792</v>
+        <v>285087.7729187768</v>
       </c>
       <c r="AF10" t="n">
         <v>1.394888495533642e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>185315.7847864869</v>
+        <v>257879.395994695</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>148.8659346597617</v>
+        <v>197.7753866225791</v>
       </c>
       <c r="AB11" t="n">
-        <v>203.6849393029212</v>
+        <v>270.6050092111499</v>
       </c>
       <c r="AC11" t="n">
-        <v>184.2455345695161</v>
+        <v>244.7788469286328</v>
       </c>
       <c r="AD11" t="n">
-        <v>148865.9346597617</v>
+        <v>197775.3866225791</v>
       </c>
       <c r="AE11" t="n">
-        <v>203684.9393029212</v>
+        <v>270605.0092111499</v>
       </c>
       <c r="AF11" t="n">
         <v>1.405045417684023e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>184245.5345695161</v>
+        <v>244778.8469286328</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>147.9157513223503</v>
+        <v>196.8252032851678</v>
       </c>
       <c r="AB12" t="n">
-        <v>202.3848565415452</v>
+        <v>269.304926449774</v>
       </c>
       <c r="AC12" t="n">
-        <v>183.0695298822078</v>
+        <v>243.6028422413245</v>
       </c>
       <c r="AD12" t="n">
-        <v>147915.7513223503</v>
+        <v>196825.2032851678</v>
       </c>
       <c r="AE12" t="n">
-        <v>202384.8565415452</v>
+        <v>269304.926449774</v>
       </c>
       <c r="AF12" t="n">
         <v>1.413954760611661e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>183069.5298822078</v>
+        <v>243602.8422413245</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>148.0483936808441</v>
+        <v>196.9578456436616</v>
       </c>
       <c r="AB13" t="n">
-        <v>202.5663436682043</v>
+        <v>269.4864135764331</v>
       </c>
       <c r="AC13" t="n">
-        <v>183.2336961322173</v>
+        <v>243.7670084913341</v>
       </c>
       <c r="AD13" t="n">
-        <v>148048.3936808441</v>
+        <v>196957.8456436616</v>
       </c>
       <c r="AE13" t="n">
-        <v>202566.3436682043</v>
+        <v>269486.413576433</v>
       </c>
       <c r="AF13" t="n">
         <v>1.413588623231073e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>183233.6961322174</v>
+        <v>243767.0084913341</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.2590145569901</v>
+        <v>301.6360879501534</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.8410773261975</v>
+        <v>412.7118027784231</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.5565955604328</v>
+        <v>373.3231675659027</v>
       </c>
       <c r="AD2" t="n">
-        <v>224259.0145569901</v>
+        <v>301636.0879501534</v>
       </c>
       <c r="AE2" t="n">
-        <v>306841.0773261975</v>
+        <v>412711.8027784231</v>
       </c>
       <c r="AF2" t="n">
         <v>1.058264476896307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>277556.5955604328</v>
+        <v>373323.1675659028</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.3390407067276</v>
+        <v>233.0687193387027</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.2241697385166</v>
+        <v>318.8949040652756</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.633652486354</v>
+        <v>288.4600219931891</v>
       </c>
       <c r="AD3" t="n">
-        <v>165339.0407067276</v>
+        <v>233068.7193387027</v>
       </c>
       <c r="AE3" t="n">
-        <v>226224.1697385166</v>
+        <v>318894.9040652756</v>
       </c>
       <c r="AF3" t="n">
         <v>1.340124099496938e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>204633.652486354</v>
+        <v>288460.0219931891</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.5121219661848</v>
+        <v>218.2076351793791</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.9373254002266</v>
+        <v>298.5613130937378</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.2829560989391</v>
+        <v>270.0670404055944</v>
       </c>
       <c r="AD4" t="n">
-        <v>150512.1219661848</v>
+        <v>218207.6351793791</v>
       </c>
       <c r="AE4" t="n">
-        <v>205937.3254002266</v>
+        <v>298561.3130937378</v>
       </c>
       <c r="AF4" t="n">
         <v>1.444419282022725e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.88657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>186282.9560989391</v>
+        <v>270067.0404055943</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.3769594001417</v>
+        <v>206.4602543007896</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.0159017806434</v>
+        <v>282.4880283177921</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.6403490493642</v>
+        <v>255.5277673696629</v>
       </c>
       <c r="AD5" t="n">
-        <v>148376.9594001417</v>
+        <v>206460.2543007896</v>
       </c>
       <c r="AE5" t="n">
-        <v>203015.9017806434</v>
+        <v>282488.0283177921</v>
       </c>
       <c r="AF5" t="n">
         <v>1.488131560827813e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.53935185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>183640.3490493642</v>
+        <v>255527.7673696629</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.4659652208167</v>
+        <v>204.4477748949794</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.4011952373792</v>
+        <v>279.7344652104387</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.2751864288247</v>
+        <v>253.0370004606243</v>
       </c>
       <c r="AD6" t="n">
-        <v>146465.9652208167</v>
+        <v>204447.7748949794</v>
       </c>
       <c r="AE6" t="n">
-        <v>200401.1952373792</v>
+        <v>279734.4652104387</v>
       </c>
       <c r="AF6" t="n">
         <v>1.52722927116434e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>181275.1864288247</v>
+        <v>253037.0004606243</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.2938178000658</v>
+        <v>193.6634091616821</v>
       </c>
       <c r="AB7" t="n">
-        <v>198.797411424814</v>
+        <v>264.978820241511</v>
       </c>
       <c r="AC7" t="n">
-        <v>179.8244654924055</v>
+        <v>239.6896135378485</v>
       </c>
       <c r="AD7" t="n">
-        <v>145293.8178000658</v>
+        <v>193663.4091616821</v>
       </c>
       <c r="AE7" t="n">
-        <v>198797.411424814</v>
+        <v>264978.820241511</v>
       </c>
       <c r="AF7" t="n">
         <v>1.545791409923731e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>179824.4654924055</v>
+        <v>239689.6135378485</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.1392204963571</v>
+        <v>192.1883499782242</v>
       </c>
       <c r="AB8" t="n">
-        <v>183.5351992877855</v>
+        <v>262.9605791916864</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.0188574610809</v>
+        <v>237.8639905811995</v>
       </c>
       <c r="AD8" t="n">
-        <v>134139.2204963571</v>
+        <v>192188.3499782242</v>
       </c>
       <c r="AE8" t="n">
-        <v>183535.1992877855</v>
+        <v>262960.5791916864</v>
       </c>
       <c r="AF8" t="n">
         <v>1.564902548790314e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>166018.8574610809</v>
+        <v>237863.9905811996</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.5425316893435</v>
+        <v>191.5916611712105</v>
       </c>
       <c r="AB9" t="n">
-        <v>182.7187833379776</v>
+        <v>262.1441632418785</v>
       </c>
       <c r="AC9" t="n">
-        <v>165.2803591036754</v>
+        <v>237.1254922237941</v>
       </c>
       <c r="AD9" t="n">
-        <v>133542.5316893435</v>
+        <v>191591.6611712106</v>
       </c>
       <c r="AE9" t="n">
-        <v>182718.7833379776</v>
+        <v>262144.1632418785</v>
       </c>
       <c r="AF9" t="n">
         <v>1.563982602664748e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.9837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>165280.3591036753</v>
+        <v>237125.492223794</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.3427940313476</v>
+        <v>191.3919235132147</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.4454934625043</v>
+        <v>261.8708733664052</v>
       </c>
       <c r="AC10" t="n">
-        <v>165.0331516303524</v>
+        <v>236.8782847504711</v>
       </c>
       <c r="AD10" t="n">
-        <v>133342.7940313476</v>
+        <v>191391.9235132147</v>
       </c>
       <c r="AE10" t="n">
-        <v>182445.4934625043</v>
+        <v>261870.8733664052</v>
       </c>
       <c r="AF10" t="n">
         <v>1.574443280382871e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>165033.1516303524</v>
+        <v>236878.2847504711</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.7984518335664</v>
+        <v>203.8640224642203</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.224362206103</v>
+        <v>278.9357493813349</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9243529008849</v>
+        <v>252.3145129492453</v>
       </c>
       <c r="AD2" t="n">
-        <v>147798.4518335664</v>
+        <v>203864.0224642204</v>
       </c>
       <c r="AE2" t="n">
-        <v>202224.362206103</v>
+        <v>278935.7493813349</v>
       </c>
       <c r="AF2" t="n">
         <v>1.96794446702954e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>182924.3529008849</v>
+        <v>252314.5129492453</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.0211295613552</v>
+        <v>179.1198545809327</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.322936774969</v>
+        <v>245.0796872477946</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.2584319319381</v>
+        <v>221.6896258684376</v>
       </c>
       <c r="AD3" t="n">
-        <v>123021.1295613552</v>
+        <v>179119.8545809327</v>
       </c>
       <c r="AE3" t="n">
-        <v>168322.936774969</v>
+        <v>245079.6872477946</v>
       </c>
       <c r="AF3" t="n">
         <v>2.207087557690546e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>152258.4319319381</v>
+        <v>221689.6258684376</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.2087761944992</v>
+        <v>178.3075012140768</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.211439059936</v>
+        <v>243.9681895327616</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.2530139988307</v>
+        <v>220.6842079353302</v>
       </c>
       <c r="AD4" t="n">
-        <v>122208.7761944992</v>
+        <v>178307.5012140768</v>
       </c>
       <c r="AE4" t="n">
-        <v>167211.439059936</v>
+        <v>243968.1895327616</v>
       </c>
       <c r="AF4" t="n">
         <v>2.238422406237363e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.70601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>151253.0139988307</v>
+        <v>220684.2079353302</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.0282449611989</v>
+        <v>235.3047506340649</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.2719017556866</v>
+        <v>321.9543407303273</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.1996360443433</v>
+        <v>291.2274703168757</v>
       </c>
       <c r="AD2" t="n">
-        <v>169028.2449611989</v>
+        <v>235304.7506340649</v>
       </c>
       <c r="AE2" t="n">
-        <v>231271.9017556866</v>
+        <v>321954.3407303273</v>
       </c>
       <c r="AF2" t="n">
         <v>1.540902539532819e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>209199.6360443433</v>
+        <v>291227.4703168757</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.5479874330524</v>
+        <v>197.3419229774398</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.3039569454105</v>
+        <v>270.0119251288042</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.9507371948936</v>
+        <v>244.2423659587072</v>
       </c>
       <c r="AD3" t="n">
-        <v>140547.9874330524</v>
+        <v>197341.9229774398</v>
       </c>
       <c r="AE3" t="n">
-        <v>192303.9569454105</v>
+        <v>270011.9251288042</v>
       </c>
       <c r="AF3" t="n">
         <v>1.806522822492501e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.49305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>173950.7371948936</v>
+        <v>244242.3659587072</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.9531984774801</v>
+        <v>184.8144538295719</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.0712110535317</v>
+        <v>252.8712891677668</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.3626603846195</v>
+        <v>228.7376082367521</v>
       </c>
       <c r="AD4" t="n">
-        <v>127953.1984774801</v>
+        <v>184814.4538295719</v>
       </c>
       <c r="AE4" t="n">
-        <v>175071.2110535317</v>
+        <v>252871.2891677668</v>
       </c>
       <c r="AF4" t="n">
         <v>1.896952091005851e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>158362.6603846195</v>
+        <v>228737.6082367521</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.2200118694893</v>
+        <v>183.0812672215811</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.6997886736832</v>
+        <v>250.4998667879183</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.2175632283907</v>
+        <v>226.5925110805234</v>
       </c>
       <c r="AD5" t="n">
-        <v>126220.0118694893</v>
+        <v>183081.2672215811</v>
       </c>
       <c r="AE5" t="n">
-        <v>172699.7886736832</v>
+        <v>250499.8667879183</v>
       </c>
       <c r="AF5" t="n">
         <v>1.936086693127257e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.71759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>156217.5632283907</v>
+        <v>226592.5110805234</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.3916197374153</v>
+        <v>183.2528750895071</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.9345901293843</v>
+        <v>250.7346682436194</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.4299555627056</v>
+        <v>226.8049034148383</v>
       </c>
       <c r="AD6" t="n">
-        <v>126391.6197374153</v>
+        <v>183252.8750895071</v>
       </c>
       <c r="AE6" t="n">
-        <v>172934.5901293843</v>
+        <v>250734.6682436194</v>
       </c>
       <c r="AF6" t="n">
         <v>1.934293173323343e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>156429.9555627056</v>
+        <v>226804.9034148383</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.8490112192052</v>
+        <v>186.2549851397822</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.0333898009996</v>
+        <v>254.8422876581517</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.9466943533831</v>
+        <v>230.5204973975291</v>
       </c>
       <c r="AD2" t="n">
-        <v>130849.0112192051</v>
+        <v>186254.9851397822</v>
       </c>
       <c r="AE2" t="n">
-        <v>179033.3898009996</v>
+        <v>254842.2876581517</v>
       </c>
       <c r="AF2" t="n">
         <v>2.403952063391119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.42361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>161946.6943533831</v>
+        <v>230520.4973975291</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.1192048126415</v>
+        <v>174.5924985409231</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.9841511930108</v>
+        <v>238.8851589810043</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.4291725528878</v>
+        <v>216.0862946853529</v>
       </c>
       <c r="AD3" t="n">
-        <v>119119.2048126415</v>
+        <v>174592.4985409231</v>
       </c>
       <c r="AE3" t="n">
-        <v>162984.1511930108</v>
+        <v>238885.1589810044</v>
       </c>
       <c r="AF3" t="n">
         <v>2.529934019803208e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>147429.1725528878</v>
+        <v>216086.2946853529</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.2459174433966</v>
+        <v>316.5921103140596</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.6643778620036</v>
+        <v>433.1752923898589</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.7286898696661</v>
+        <v>391.8336504495113</v>
       </c>
       <c r="AD2" t="n">
-        <v>229245.9174433966</v>
+        <v>316592.1103140596</v>
       </c>
       <c r="AE2" t="n">
-        <v>313664.3778620036</v>
+        <v>433175.2923898589</v>
       </c>
       <c r="AF2" t="n">
         <v>1.001424003822556e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>283728.6898696661</v>
+        <v>391833.6504495112</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.655285508364</v>
+        <v>235.8757033124002</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.0757992304796</v>
+        <v>322.7355433734796</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.87698611102</v>
+        <v>291.9341160761905</v>
       </c>
       <c r="AD3" t="n">
-        <v>177655.285508364</v>
+        <v>235875.7033124002</v>
       </c>
       <c r="AE3" t="n">
-        <v>243075.7992304796</v>
+        <v>322735.5433734796</v>
       </c>
       <c r="AF3" t="n">
         <v>1.2866391512633e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>219876.98611102</v>
+        <v>291934.1160761905</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.4616183850869</v>
+        <v>220.6478707703423</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.287153575136</v>
+        <v>301.9001510848883</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.0723796199684</v>
+        <v>273.087224384959</v>
       </c>
       <c r="AD4" t="n">
-        <v>162461.6183850869</v>
+        <v>220647.8707703423</v>
       </c>
       <c r="AE4" t="n">
-        <v>222287.153575136</v>
+        <v>301900.1510848883</v>
       </c>
       <c r="AF4" t="n">
         <v>1.389804849583703e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.06018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>201072.3796199684</v>
+        <v>273087.224384959</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.05278145518</v>
+        <v>208.3063536481399</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.308835448397</v>
+        <v>285.0139428889906</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.7144483460208</v>
+        <v>257.8126121993304</v>
       </c>
       <c r="AD5" t="n">
-        <v>150052.78145518</v>
+        <v>208306.3536481399</v>
       </c>
       <c r="AE5" t="n">
-        <v>205308.835448397</v>
+        <v>285013.9428889906</v>
       </c>
       <c r="AF5" t="n">
         <v>1.442046511273529e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.62037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>185714.4483460208</v>
+        <v>257812.6121993304</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.7282555937271</v>
+        <v>206.8803425602017</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.496560730801</v>
+        <v>283.0628116073055</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.0751345839281</v>
+        <v>256.0476941487387</v>
       </c>
       <c r="AD6" t="n">
-        <v>148728.2555937271</v>
+        <v>206880.3425602017</v>
       </c>
       <c r="AE6" t="n">
-        <v>203496.560730801</v>
+        <v>283062.8116073055</v>
       </c>
       <c r="AF6" t="n">
         <v>1.468080465740909e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.41203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>184075.1345839281</v>
+        <v>256047.6941487387</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.3147444060401</v>
+        <v>205.4668313725147</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.5625323640961</v>
+        <v>281.1287832406006</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.325687170115</v>
+        <v>254.2982467349256</v>
       </c>
       <c r="AD7" t="n">
-        <v>147314.7444060401</v>
+        <v>205466.8313725147</v>
       </c>
       <c r="AE7" t="n">
-        <v>201562.5323640961</v>
+        <v>281128.7832406006</v>
       </c>
       <c r="AF7" t="n">
         <v>1.488409538083625e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>182325.687170115</v>
+        <v>254298.2467349256</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>146.1202760389941</v>
+        <v>194.6317651442036</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.9282080480793</v>
+        <v>266.3037676176471</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.8473404730298</v>
+        <v>240.888109795982</v>
       </c>
       <c r="AD8" t="n">
-        <v>146120.2760389941</v>
+        <v>194631.7651442036</v>
       </c>
       <c r="AE8" t="n">
-        <v>199928.2080480793</v>
+        <v>266303.7676176471</v>
       </c>
       <c r="AF8" t="n">
         <v>1.507609217518412e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>180847.3404730298</v>
+        <v>240888.109795982</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>144.9804633489696</v>
+        <v>193.4919524541792</v>
       </c>
       <c r="AB9" t="n">
-        <v>198.3686660406018</v>
+        <v>264.7442256101695</v>
       </c>
       <c r="AC9" t="n">
-        <v>179.4366389659144</v>
+        <v>239.4774082888666</v>
       </c>
       <c r="AD9" t="n">
-        <v>144980.4633489696</v>
+        <v>193491.9524541792</v>
       </c>
       <c r="AE9" t="n">
-        <v>198368.6660406018</v>
+        <v>264744.2256101695</v>
       </c>
       <c r="AF9" t="n">
         <v>1.518425326521266e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>179436.6389659144</v>
+        <v>239477.4082888666</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.7696116665544</v>
+        <v>192.9890184407334</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.3977282977447</v>
+        <v>264.0560891050906</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.7990679128969</v>
+        <v>238.8549465660266</v>
       </c>
       <c r="AD10" t="n">
-        <v>134769.6116665544</v>
+        <v>192989.0184407334</v>
       </c>
       <c r="AE10" t="n">
-        <v>184397.7282977447</v>
+        <v>264056.0891050906</v>
       </c>
       <c r="AF10" t="n">
         <v>1.526910252726987e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>166799.0679128969</v>
+        <v>238854.9465660266</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>134.9361096714361</v>
+        <v>193.1555164456151</v>
       </c>
       <c r="AB11" t="n">
-        <v>184.6255382133973</v>
+        <v>264.2838990207431</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.0051359699329</v>
+        <v>239.0610146230626</v>
       </c>
       <c r="AD11" t="n">
-        <v>134936.1096714361</v>
+        <v>193155.5164456151</v>
       </c>
       <c r="AE11" t="n">
-        <v>184625.5382133973</v>
+        <v>264283.8990207431</v>
       </c>
       <c r="AF11" t="n">
         <v>1.527098484878308e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>167005.1359699329</v>
+        <v>239061.0146230626</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.9686687288033</v>
+        <v>172.8831061555216</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.7241340170057</v>
+        <v>236.5462929062296</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.1441464898246</v>
+        <v>213.9706467061347</v>
       </c>
       <c r="AD2" t="n">
-        <v>126968.6687288033</v>
+        <v>172883.1061555216</v>
       </c>
       <c r="AE2" t="n">
-        <v>173724.1340170057</v>
+        <v>236546.2929062296</v>
       </c>
       <c r="AF2" t="n">
         <v>2.70867261197033e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>157144.1464898246</v>
+        <v>213970.6467061347</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2938549102003</v>
+        <v>172.3967996701897</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.4866269277376</v>
+        <v>235.8809069186709</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.1700084981941</v>
+        <v>213.3687642233532</v>
       </c>
       <c r="AD3" t="n">
-        <v>117293.8549102003</v>
+        <v>172396.7996701897</v>
       </c>
       <c r="AE3" t="n">
-        <v>160486.6269277376</v>
+        <v>235880.9069186709</v>
       </c>
       <c r="AF3" t="n">
         <v>2.747293777614368e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>145170.0084981941</v>
+        <v>213368.7642233532</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.9881574350673</v>
+        <v>267.6615422850332</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.3184228053819</v>
+        <v>366.2263305482345</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.3785592956225</v>
+        <v>331.2742035625934</v>
       </c>
       <c r="AD2" t="n">
-        <v>190988.1574350673</v>
+        <v>267661.5422850332</v>
       </c>
       <c r="AE2" t="n">
-        <v>261318.4228053819</v>
+        <v>366226.3305482345</v>
       </c>
       <c r="AF2" t="n">
         <v>1.262865365289667e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236378.5592956225</v>
+        <v>331274.2035625934</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.6945872819745</v>
+        <v>215.1579301758276</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.7646913132914</v>
+        <v>294.3885721643916</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.1724120020589</v>
+        <v>266.2925400140649</v>
       </c>
       <c r="AD3" t="n">
-        <v>157694.5872819746</v>
+        <v>215157.9301758276</v>
       </c>
       <c r="AE3" t="n">
-        <v>215764.6913132914</v>
+        <v>294388.5721643916</v>
       </c>
       <c r="AF3" t="n">
         <v>1.539145902834162e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.12962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>195172.4120020589</v>
+        <v>266292.5400140649</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.4650708188208</v>
+        <v>201.8942482938931</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.6634832433388</v>
+        <v>276.2406174611912</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.7987578250917</v>
+        <v>249.8766006369178</v>
       </c>
       <c r="AD4" t="n">
-        <v>144465.0708188208</v>
+        <v>201894.2482938931</v>
       </c>
       <c r="AE4" t="n">
-        <v>197663.4832433388</v>
+        <v>276240.6174611912</v>
       </c>
       <c r="AF4" t="n">
         <v>1.627012277949048e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>178798.7578250917</v>
+        <v>249876.6006369178</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.208179183082</v>
+        <v>190.117243712123</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.5755045402906</v>
+        <v>260.1268002276483</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.0054914754561</v>
+        <v>235.3006635042545</v>
       </c>
       <c r="AD5" t="n">
-        <v>142208.179183082</v>
+        <v>190117.243712123</v>
       </c>
       <c r="AE5" t="n">
-        <v>194575.5045402906</v>
+        <v>260126.8002276483</v>
       </c>
       <c r="AF5" t="n">
         <v>1.682771769759009e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>176005.4914754561</v>
+        <v>235300.6635042545</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.7678498492538</v>
+        <v>188.2643471320305</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.9223412340453</v>
+        <v>257.5915853827391</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.8462441058012</v>
+        <v>233.0074060059463</v>
       </c>
       <c r="AD6" t="n">
-        <v>130767.8498492538</v>
+        <v>188264.3471320305</v>
       </c>
       <c r="AE6" t="n">
-        <v>178922.3412340453</v>
+        <v>257591.5853827391</v>
       </c>
       <c r="AF6" t="n">
         <v>1.717363306344818e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>161846.2441058012</v>
+        <v>233007.4060059463</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.1180954236307</v>
+        <v>187.6145927064074</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.033318563766</v>
+        <v>256.7025627124599</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.0420685114219</v>
+        <v>232.2032304115671</v>
       </c>
       <c r="AD7" t="n">
-        <v>130118.0954236307</v>
+        <v>187614.5927064074</v>
       </c>
       <c r="AE7" t="n">
-        <v>178033.318563766</v>
+        <v>256702.5627124599</v>
       </c>
       <c r="AF7" t="n">
         <v>1.724607522728693e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>161042.0685114219</v>
+        <v>232203.2304115671</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.2864890536573</v>
+        <v>187.782986336434</v>
       </c>
       <c r="AB8" t="n">
-        <v>178.263722157371</v>
+        <v>256.9329663060649</v>
       </c>
       <c r="AC8" t="n">
-        <v>161.2504827094268</v>
+        <v>232.411644609572</v>
       </c>
       <c r="AD8" t="n">
-        <v>130286.4890536573</v>
+        <v>187782.9863364341</v>
       </c>
       <c r="AE8" t="n">
-        <v>178263.722157371</v>
+        <v>256932.9663060649</v>
       </c>
       <c r="AF8" t="n">
         <v>1.723316793751611e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>161250.4827094268</v>
+        <v>232411.644609572</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.547799886168</v>
+        <v>286.7565233536101</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.7125444006025</v>
+        <v>392.3529260573717</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.3491015666767</v>
+        <v>354.9073134652456</v>
       </c>
       <c r="AD2" t="n">
-        <v>209547.799886168</v>
+        <v>286756.5233536101</v>
       </c>
       <c r="AE2" t="n">
-        <v>286712.5444006025</v>
+        <v>392352.9260573717</v>
       </c>
       <c r="AF2" t="n">
         <v>1.121629302873027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>259349.1015666767</v>
+        <v>354907.3134652457</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.2178206095961</v>
+        <v>230.741288224824</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.3218228199967</v>
+        <v>315.7104101362543</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.0083014842672</v>
+        <v>285.5794516952874</v>
       </c>
       <c r="AD3" t="n">
-        <v>163217.8206095961</v>
+        <v>230741.288224824</v>
       </c>
       <c r="AE3" t="n">
-        <v>223321.8228199967</v>
+        <v>315710.4101362543</v>
       </c>
       <c r="AF3" t="n">
         <v>1.392312795463185e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.66203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>202008.3014842672</v>
+        <v>285579.4516952874</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.8110534169794</v>
+        <v>206.7175960175583</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.6098483653569</v>
+        <v>282.8401346077902</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.1776102056421</v>
+        <v>255.8462691295279</v>
       </c>
       <c r="AD4" t="n">
-        <v>148811.0534169794</v>
+        <v>206717.5960175583</v>
       </c>
       <c r="AE4" t="n">
-        <v>203609.8483653569</v>
+        <v>282840.1346077902</v>
       </c>
       <c r="AF4" t="n">
         <v>1.492688338372026e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>184177.6102056422</v>
+        <v>255846.2691295279</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.2804238995869</v>
+        <v>204.0854812736805</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.1473294161673</v>
+        <v>279.2387590945113</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.0455492052862</v>
+        <v>252.588603840673</v>
       </c>
       <c r="AD5" t="n">
-        <v>146280.4238995868</v>
+        <v>204085.4812736805</v>
       </c>
       <c r="AE5" t="n">
-        <v>200147.3294161673</v>
+        <v>279238.7590945113</v>
       </c>
       <c r="AF5" t="n">
         <v>1.550346023920937e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>181045.5492052862</v>
+        <v>252588.603840673</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.6806417096236</v>
+        <v>192.9029394878491</v>
       </c>
       <c r="AB6" t="n">
-        <v>197.9584368464515</v>
+        <v>263.9383120842189</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.0655614702934</v>
+        <v>238.7484100187257</v>
       </c>
       <c r="AD6" t="n">
-        <v>144680.6417096236</v>
+        <v>192902.9394878491</v>
       </c>
       <c r="AE6" t="n">
-        <v>197958.4368464515</v>
+        <v>263938.3120842189</v>
       </c>
       <c r="AF6" t="n">
         <v>1.57737782314157e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>179065.5614702934</v>
+        <v>238748.4100187257</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.2755891437408</v>
+        <v>191.1479663255389</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.3535407704103</v>
+        <v>261.5370803795957</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.9499747741353</v>
+        <v>236.5763484978412</v>
       </c>
       <c r="AD7" t="n">
-        <v>133275.5891437408</v>
+        <v>191147.9663255389</v>
       </c>
       <c r="AE7" t="n">
-        <v>182353.5407704103</v>
+        <v>261537.0803795957</v>
       </c>
       <c r="AF7" t="n">
         <v>1.607729584181976e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>164949.9747741353</v>
+        <v>236576.3484978412</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.4380516107175</v>
+        <v>190.3104287925156</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.2075849681801</v>
+        <v>260.3911245773655</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.9133873853106</v>
+        <v>235.5397611090165</v>
       </c>
       <c r="AD8" t="n">
-        <v>132438.0516107175</v>
+        <v>190310.4287925156</v>
       </c>
       <c r="AE8" t="n">
-        <v>181207.5849681801</v>
+        <v>260391.1245773656</v>
       </c>
       <c r="AF8" t="n">
         <v>1.618024511659806e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>163913.3873853106</v>
+        <v>235539.7611090165</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.5462698562458</v>
+        <v>190.4186470380439</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.355653945964</v>
+        <v>260.5391935551494</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.0473248676709</v>
+        <v>235.6736985913767</v>
       </c>
       <c r="AD9" t="n">
-        <v>132546.2698562458</v>
+        <v>190418.6470380439</v>
       </c>
       <c r="AE9" t="n">
-        <v>181355.6539459639</v>
+        <v>260539.1935551494</v>
       </c>
       <c r="AF9" t="n">
         <v>1.616014259548751e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>164047.3248676709</v>
+        <v>235673.6985913767</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.5051347357819</v>
+        <v>337.3706495267257</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.3839327350188</v>
+        <v>461.6054064250825</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.8027293302492</v>
+        <v>417.5504343031287</v>
       </c>
       <c r="AD2" t="n">
-        <v>249505.1347357819</v>
+        <v>337370.6495267258</v>
       </c>
       <c r="AE2" t="n">
-        <v>341383.9327350188</v>
+        <v>461605.4064250825</v>
       </c>
       <c r="AF2" t="n">
         <v>9.015855835479477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>308802.7293302492</v>
+        <v>417550.4343031287</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.9989381069017</v>
+        <v>251.3387829442992</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.3872204611099</v>
+        <v>343.8928111087605</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.4906155610454</v>
+        <v>311.0721638732347</v>
       </c>
       <c r="AD3" t="n">
-        <v>182998.9381069017</v>
+        <v>251338.7829442992</v>
       </c>
       <c r="AE3" t="n">
-        <v>250387.2204611099</v>
+        <v>343892.8111087605</v>
       </c>
       <c r="AF3" t="n">
         <v>1.186442548216619e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>226490.6155610454</v>
+        <v>311072.1638732347</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.7506253243472</v>
+        <v>225.2603153772691</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.1555620870609</v>
+        <v>308.2111012827771</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.3807154598801</v>
+        <v>278.7958663534376</v>
       </c>
       <c r="AD4" t="n">
-        <v>166750.6253243472</v>
+        <v>225260.3153772691</v>
       </c>
       <c r="AE4" t="n">
-        <v>228155.5620870609</v>
+        <v>308211.1012827771</v>
       </c>
       <c r="AF4" t="n">
         <v>1.292834741717724e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.39583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>206380.7154598801</v>
+        <v>278795.8663534376</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.1864901498976</v>
+        <v>222.4580041497334</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.9647580508636</v>
+        <v>304.3768554320187</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.8305776334469</v>
+        <v>275.3275555452764</v>
       </c>
       <c r="AD5" t="n">
-        <v>154186.4901498976</v>
+        <v>222458.0041497334</v>
       </c>
       <c r="AE5" t="n">
-        <v>210964.7580508636</v>
+        <v>304376.8554320186</v>
       </c>
       <c r="AF5" t="n">
         <v>1.341164624282768e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>190830.577633447</v>
+        <v>275327.5555452764</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.1428966497557</v>
+        <v>210.7199065103821</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.1686232669885</v>
+        <v>288.3162723935462</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.3013020289443</v>
+        <v>260.7997720108208</v>
       </c>
       <c r="AD6" t="n">
-        <v>152142.8966497557</v>
+        <v>210719.906510382</v>
       </c>
       <c r="AE6" t="n">
-        <v>208168.6232669885</v>
+        <v>288316.2723935462</v>
       </c>
       <c r="AF6" t="n">
         <v>1.378668391647048e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.62037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>188301.3020289443</v>
+        <v>260799.7720108208</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.014537115322</v>
+        <v>209.4900617494631</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.6247519722677</v>
+        <v>286.6335445347362</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.9047756437542</v>
+        <v>259.2776413371317</v>
       </c>
       <c r="AD7" t="n">
-        <v>151014.537115322</v>
+        <v>209490.0617494631</v>
       </c>
       <c r="AE7" t="n">
-        <v>206624.7519722678</v>
+        <v>286633.5445347362</v>
       </c>
       <c r="AF7" t="n">
         <v>1.394284578279351e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.49305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>186904.7756437542</v>
+        <v>259277.6413371317</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>149.7736914957787</v>
+        <v>208.2492161299198</v>
       </c>
       <c r="AB8" t="n">
-        <v>204.9269722533642</v>
+        <v>284.9357648158327</v>
       </c>
       <c r="AC8" t="n">
-        <v>185.3690296383734</v>
+        <v>257.741895331751</v>
       </c>
       <c r="AD8" t="n">
-        <v>149773.6914957787</v>
+        <v>208249.2161299198</v>
       </c>
       <c r="AE8" t="n">
-        <v>204926.9722533642</v>
+        <v>284935.7648158327</v>
       </c>
       <c r="AF8" t="n">
         <v>1.413541772965107e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.33101851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>185369.0296383734</v>
+        <v>257741.895331751</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>148.4244064780633</v>
+        <v>197.2054269729949</v>
       </c>
       <c r="AB9" t="n">
-        <v>203.0808209658731</v>
+        <v>269.8251652737441</v>
       </c>
       <c r="AC9" t="n">
-        <v>183.6990724386703</v>
+        <v>244.0734302020949</v>
       </c>
       <c r="AD9" t="n">
-        <v>148424.4064780633</v>
+        <v>197205.4269729949</v>
       </c>
       <c r="AE9" t="n">
-        <v>203080.8209658731</v>
+        <v>269825.1652737441</v>
       </c>
       <c r="AF9" t="n">
         <v>1.434252602044828e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>183699.0724386703</v>
+        <v>244073.4302020949</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>147.6572300129098</v>
+        <v>196.4382505078415</v>
       </c>
       <c r="AB10" t="n">
-        <v>202.0311362808137</v>
+        <v>268.7754805886848</v>
       </c>
       <c r="AC10" t="n">
-        <v>182.7495681867109</v>
+        <v>243.1239259501356</v>
       </c>
       <c r="AD10" t="n">
-        <v>147657.2300129098</v>
+        <v>196438.2505078415</v>
       </c>
       <c r="AE10" t="n">
-        <v>202031.1362808137</v>
+        <v>268775.4805886848</v>
       </c>
       <c r="AF10" t="n">
         <v>1.440468619596161e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.12268518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>182749.5681867109</v>
+        <v>243123.9259501356</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.2803454176603</v>
+        <v>196.061365912592</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.5154661506187</v>
+        <v>268.2598104584898</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.283112889994</v>
+        <v>242.6574706534186</v>
       </c>
       <c r="AD11" t="n">
-        <v>147280.3454176603</v>
+        <v>196061.365912592</v>
       </c>
       <c r="AE11" t="n">
-        <v>201515.4661506187</v>
+        <v>268259.8104584898</v>
       </c>
       <c r="AF11" t="n">
         <v>1.442891343586102e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>182283.112889994</v>
+        <v>242657.4706534186</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>147.0096319121069</v>
+        <v>195.7906524070386</v>
       </c>
       <c r="AB12" t="n">
-        <v>201.1450639892837</v>
+        <v>267.8894082971548</v>
       </c>
       <c r="AC12" t="n">
-        <v>181.948061391074</v>
+        <v>242.3224191544986</v>
       </c>
       <c r="AD12" t="n">
-        <v>147009.6319121069</v>
+        <v>195790.6524070385</v>
       </c>
       <c r="AE12" t="n">
-        <v>201145.0639892837</v>
+        <v>267889.4082971548</v>
       </c>
       <c r="AF12" t="n">
         <v>1.442849811174846e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>181948.061391074</v>
+        <v>242322.4191544986</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.943450637085</v>
+        <v>249.0330557131709</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.6288588881153</v>
+        <v>340.7380133896261</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.0453327065913</v>
+        <v>308.218455620627</v>
       </c>
       <c r="AD2" t="n">
-        <v>172943.450637085</v>
+        <v>249033.0557131709</v>
       </c>
       <c r="AE2" t="n">
-        <v>236628.8588881153</v>
+        <v>340738.0133896261</v>
       </c>
       <c r="AF2" t="n">
         <v>1.438069255754091e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>214045.3327065913</v>
+        <v>308218.455620627</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.1546632929784</v>
+        <v>200.273115228214</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.8705258553822</v>
+        <v>274.0225116813869</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.1769177738096</v>
+        <v>247.8701877596063</v>
       </c>
       <c r="AD3" t="n">
-        <v>143154.6632929784</v>
+        <v>200273.115228214</v>
       </c>
       <c r="AE3" t="n">
-        <v>195870.5258553822</v>
+        <v>274022.5116813869</v>
       </c>
       <c r="AF3" t="n">
         <v>1.703767928313429e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>177176.9177738096</v>
+        <v>247870.1877596063</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.7931131990656</v>
+        <v>187.3586687561717</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.2711047157694</v>
+        <v>256.3523962731797</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.0164589324319</v>
+        <v>231.88648336579</v>
       </c>
       <c r="AD4" t="n">
-        <v>139793.1131990656</v>
+        <v>187358.6687561717</v>
       </c>
       <c r="AE4" t="n">
-        <v>191271.1047157694</v>
+        <v>256352.3962731797</v>
       </c>
       <c r="AF4" t="n">
         <v>1.798518542951348e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>173016.4589324319</v>
+        <v>231886.48336579</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.3839761721701</v>
+        <v>185.4682626886249</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.6606200999768</v>
+        <v>253.7658592927338</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.8958170589128</v>
+        <v>229.5468018445296</v>
       </c>
       <c r="AD5" t="n">
-        <v>128383.9761721701</v>
+        <v>185468.2626886249</v>
       </c>
       <c r="AE5" t="n">
-        <v>175660.6200999768</v>
+        <v>253765.8592927338</v>
       </c>
       <c r="AF5" t="n">
         <v>1.837281727009047e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>158895.8170589128</v>
+        <v>229546.8018445296</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.6203122624903</v>
+        <v>184.7045987789451</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.6157414482795</v>
+        <v>252.7209806410365</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.9506601592367</v>
+        <v>228.6016449448535</v>
       </c>
       <c r="AD6" t="n">
-        <v>127620.3122624903</v>
+        <v>184704.5987789451</v>
       </c>
       <c r="AE6" t="n">
-        <v>174615.7414482795</v>
+        <v>252720.9806410365</v>
       </c>
       <c r="AF6" t="n">
         <v>1.860563799713337e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>157950.6601592367</v>
+        <v>228601.6449448535</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.8357096073505</v>
+        <v>217.6080777690965</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.7483164034341</v>
+        <v>297.7409721943834</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.9211086625429</v>
+        <v>269.3249916903183</v>
       </c>
       <c r="AD2" t="n">
-        <v>151835.7096073505</v>
+        <v>217608.0777690965</v>
       </c>
       <c r="AE2" t="n">
-        <v>207748.3164034341</v>
+        <v>297740.9721943834</v>
       </c>
       <c r="AF2" t="n">
         <v>1.797379950528015e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>187921.1086625429</v>
+        <v>269324.9916903183</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.4992853448395</v>
+        <v>182.4707977991494</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.3961000153046</v>
+        <v>249.6645955921375</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.7021564349567</v>
+        <v>225.8369569953571</v>
       </c>
       <c r="AD3" t="n">
-        <v>135499.2853448395</v>
+        <v>182470.7977991494</v>
       </c>
       <c r="AE3" t="n">
-        <v>185396.1000153046</v>
+        <v>249664.5955921375</v>
       </c>
       <c r="AF3" t="n">
         <v>2.041782334044332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.12268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>167702.1564349567</v>
+        <v>225836.9569953571</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.7534072922294</v>
+        <v>180.1248420853287</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.3248714721639</v>
+        <v>246.4547554882279</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.1647433878573</v>
+        <v>222.9334595259248</v>
       </c>
       <c r="AD4" t="n">
-        <v>123753.4072922294</v>
+        <v>180124.8420853287</v>
       </c>
       <c r="AE4" t="n">
-        <v>169324.8714721639</v>
+        <v>246454.7554882279</v>
       </c>
       <c r="AF4" t="n">
         <v>2.112547951111928e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>153164.7433878573</v>
+        <v>222933.4595259248</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.6525626838553</v>
+        <v>180.0239974769547</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.1868914300365</v>
+        <v>246.3167754461005</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.0399319672943</v>
+        <v>222.8086481053618</v>
       </c>
       <c r="AD5" t="n">
-        <v>123652.5626838553</v>
+        <v>180023.9974769547</v>
       </c>
       <c r="AE5" t="n">
-        <v>169186.8914300365</v>
+        <v>246316.7754461005</v>
       </c>
       <c r="AF5" t="n">
         <v>2.125127196963378e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.68287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>153039.9319672943</v>
+        <v>222808.6481053618</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.9273190734987</v>
+        <v>190.7631235794117</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.6135105294855</v>
+        <v>261.0105215562811</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.9942561912926</v>
+        <v>236.1000437095936</v>
       </c>
       <c r="AD2" t="n">
-        <v>134927.3190734987</v>
+        <v>190763.1235794117</v>
       </c>
       <c r="AE2" t="n">
-        <v>184613.5105294855</v>
+        <v>261010.5215562811</v>
       </c>
       <c r="AF2" t="n">
         <v>2.147176460898009e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>166994.2561912926</v>
+        <v>236100.0437095936</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8902447640386</v>
+        <v>176.6918838511709</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.4073661872793</v>
+        <v>241.7576305808272</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6211193091077</v>
+        <v>218.6846216272287</v>
       </c>
       <c r="AD3" t="n">
-        <v>120890.2447640386</v>
+        <v>176691.8838511709</v>
       </c>
       <c r="AE3" t="n">
-        <v>165407.3661872793</v>
+        <v>241757.6305808272</v>
       </c>
       <c r="AF3" t="n">
         <v>2.362740406498192e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>149621.1193091077</v>
+        <v>218684.6216272287</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.7962288113907</v>
+        <v>176.597867898523</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.2787294131755</v>
+        <v>241.6289938067233</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.5047594481814</v>
+        <v>218.5682617663025</v>
       </c>
       <c r="AD4" t="n">
-        <v>120796.2288113907</v>
+        <v>176597.867898523</v>
       </c>
       <c r="AE4" t="n">
-        <v>165278.7294131755</v>
+        <v>241628.9938067233</v>
       </c>
       <c r="AF4" t="n">
         <v>2.374332946666446e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>149504.7594481814</v>
+        <v>218568.2617663025</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.4090797599168</v>
+        <v>179.0138872465645</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.2219914686812</v>
+        <v>244.9346980659632</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.9762435110231</v>
+        <v>221.5584742506265</v>
       </c>
       <c r="AD2" t="n">
-        <v>124409.0797599168</v>
+        <v>179013.8872465645</v>
       </c>
       <c r="AE2" t="n">
-        <v>170221.9914686812</v>
+        <v>244934.6980659632</v>
       </c>
       <c r="AF2" t="n">
         <v>2.99805725041092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>153976.2435110231</v>
+        <v>221558.4742506265</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.0958174136357</v>
+        <v>281.9578137248906</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.621145574082</v>
+        <v>385.7871198392302</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.8390572948255</v>
+        <v>348.9681385773966</v>
       </c>
       <c r="AD2" t="n">
-        <v>205095.8174136357</v>
+        <v>281957.8137248906</v>
       </c>
       <c r="AE2" t="n">
-        <v>280621.145574082</v>
+        <v>385787.1198392302</v>
       </c>
       <c r="AF2" t="n">
         <v>1.188060644288756e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>253839.0572948255</v>
+        <v>348968.1385773966</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.2950742403642</v>
+        <v>217.9503655859622</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.3227922951461</v>
+        <v>298.2093054860915</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.3909328200326</v>
+        <v>269.7486279099759</v>
       </c>
       <c r="AD3" t="n">
-        <v>160295.0742403642</v>
+        <v>217950.3655859622</v>
       </c>
       <c r="AE3" t="n">
-        <v>219322.7922951461</v>
+        <v>298209.3054860915</v>
       </c>
       <c r="AF3" t="n">
         <v>1.465318117734167e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.37268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>198390.9328200326</v>
+        <v>269748.6279099759</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.6301769159049</v>
+        <v>204.3527880692073</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.6258769231075</v>
+        <v>279.6045000448944</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.4784248098099</v>
+        <v>252.9194389880723</v>
       </c>
       <c r="AD4" t="n">
-        <v>146630.1769159049</v>
+        <v>204352.7880692073</v>
       </c>
       <c r="AE4" t="n">
-        <v>200625.8769231075</v>
+        <v>279604.5000448944</v>
       </c>
       <c r="AF4" t="n">
         <v>1.557110917312671e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.64351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>181478.4248098099</v>
+        <v>252919.4389880723</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.2079178236228</v>
+        <v>192.2769393957845</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.3116351705195</v>
+        <v>263.0817911410816</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.4804896385203</v>
+        <v>237.9736342322665</v>
       </c>
       <c r="AD5" t="n">
-        <v>144207.9178236228</v>
+        <v>192276.9393957845</v>
       </c>
       <c r="AE5" t="n">
-        <v>197311.6351705195</v>
+        <v>263081.7911410816</v>
       </c>
       <c r="AF5" t="n">
         <v>1.61544052809908e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.21527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>178480.4896385203</v>
+        <v>237973.6342322665</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.7320496402772</v>
+        <v>190.8010712124389</v>
       </c>
       <c r="AB6" t="n">
-        <v>195.2922872113582</v>
+        <v>261.0624431819202</v>
       </c>
       <c r="AC6" t="n">
-        <v>176.653865414408</v>
+        <v>236.1470100081542</v>
       </c>
       <c r="AD6" t="n">
-        <v>142732.0496402772</v>
+        <v>190801.0712124389</v>
       </c>
       <c r="AE6" t="n">
-        <v>195292.2872113582</v>
+        <v>261062.4431819202</v>
       </c>
       <c r="AF6" t="n">
         <v>1.643704943527124e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>176653.865414408</v>
+        <v>236147.0100081542</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.6877578072134</v>
+        <v>189.3762035417349</v>
       </c>
       <c r="AB7" t="n">
-        <v>180.1809998855998</v>
+        <v>259.1128763741389</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.9847781421902</v>
+        <v>234.3835071202727</v>
       </c>
       <c r="AD7" t="n">
-        <v>131687.7578072133</v>
+        <v>189376.2035417349</v>
       </c>
       <c r="AE7" t="n">
-        <v>180180.9998855998</v>
+        <v>259112.8763741389</v>
       </c>
       <c r="AF7" t="n">
         <v>1.664327788468252e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>162984.7781421902</v>
+        <v>234383.5071202727</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.1301491209929</v>
+        <v>188.8185948555145</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.4180550811544</v>
+        <v>258.3499315696934</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.2946477190811</v>
+        <v>233.6933766971636</v>
       </c>
       <c r="AD8" t="n">
-        <v>131130.149120993</v>
+        <v>188818.5948555145</v>
       </c>
       <c r="AE8" t="n">
-        <v>179418.0550811544</v>
+        <v>258349.9315696934</v>
       </c>
       <c r="AF8" t="n">
         <v>1.674052000091973e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.82175925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>162294.6477190811</v>
+        <v>233693.3766971636</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.4597096701723</v>
+        <v>331.9851835803294</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.4805595718107</v>
+        <v>454.2367743272336</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.5582044127904</v>
+        <v>410.8850541107585</v>
       </c>
       <c r="AD2" t="n">
-        <v>244459.7096701722</v>
+        <v>331985.1835803294</v>
       </c>
       <c r="AE2" t="n">
-        <v>334480.5595718106</v>
+        <v>454236.7743272336</v>
       </c>
       <c r="AF2" t="n">
         <v>9.47994318656141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.28009259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>302558.2044127904</v>
+        <v>410885.0541107585</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.2672841566478</v>
+        <v>248.3201004808811</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.6496510143073</v>
+        <v>339.7625165874426</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.1097544965328</v>
+        <v>307.3360588641254</v>
       </c>
       <c r="AD3" t="n">
-        <v>180267.2841566478</v>
+        <v>248320.1004808811</v>
       </c>
       <c r="AE3" t="n">
-        <v>246649.6510143073</v>
+        <v>339762.5165874427</v>
       </c>
       <c r="AF3" t="n">
         <v>1.233896693359733e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.27546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>223109.7544965328</v>
+        <v>307336.0588641254</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.5553940900375</v>
+        <v>222.9060470400919</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.151949865513</v>
+        <v>304.9898874808641</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.6637637731595</v>
+        <v>275.8820806757761</v>
       </c>
       <c r="AD4" t="n">
-        <v>164555.3940900375</v>
+        <v>222906.0470400919</v>
       </c>
       <c r="AE4" t="n">
-        <v>225151.949865513</v>
+        <v>304989.8874808641</v>
       </c>
       <c r="AF4" t="n">
         <v>1.339790654177396e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>203663.7637731595</v>
+        <v>275882.0806757761</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.9991009752776</v>
+        <v>210.4170737330363</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.9718756813503</v>
+        <v>287.9019232275428</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.1233317567423</v>
+        <v>260.424967747678</v>
       </c>
       <c r="AD5" t="n">
-        <v>151999.1009752776</v>
+        <v>210417.0737330363</v>
       </c>
       <c r="AE5" t="n">
-        <v>207971.8756813503</v>
+        <v>287901.9232275428</v>
       </c>
       <c r="AF5" t="n">
         <v>1.391633982936871e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>188123.3317567423</v>
+        <v>260424.967747678</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.2408499913197</v>
+        <v>208.5573375225933</v>
       </c>
       <c r="AB6" t="n">
-        <v>205.5661591165415</v>
+        <v>285.3573500986448</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.9472134044336</v>
+        <v>258.1232451068703</v>
       </c>
       <c r="AD6" t="n">
-        <v>150240.8499913198</v>
+        <v>208557.3375225933</v>
       </c>
       <c r="AE6" t="n">
-        <v>205566.1591165414</v>
+        <v>285357.3500986447</v>
       </c>
       <c r="AF6" t="n">
         <v>1.425833034686776e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>185947.2134044336</v>
+        <v>258123.2451068703</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.0249878489953</v>
+        <v>207.3414753802688</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.9025628933619</v>
+        <v>283.6937538754652</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.4423884699219</v>
+        <v>256.6184201723585</v>
       </c>
       <c r="AD7" t="n">
-        <v>149024.9878489953</v>
+        <v>207341.4753802688</v>
       </c>
       <c r="AE7" t="n">
-        <v>203902.5628933619</v>
+        <v>283693.7538754652</v>
       </c>
       <c r="AF7" t="n">
         <v>1.445656316234818e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.33101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>184442.3884699219</v>
+        <v>256618.4201723585</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.6136123625881</v>
+        <v>196.2621019384634</v>
       </c>
       <c r="AB8" t="n">
-        <v>201.9714566873685</v>
+        <v>268.5344663449353</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.6955843299033</v>
+        <v>242.9059137675439</v>
       </c>
       <c r="AD8" t="n">
-        <v>147613.6123625881</v>
+        <v>196262.1019384634</v>
       </c>
       <c r="AE8" t="n">
-        <v>201971.4566873685</v>
+        <v>268534.4663449353</v>
       </c>
       <c r="AF8" t="n">
         <v>1.46549374716298e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>182695.5843299033</v>
+        <v>242905.9137675439</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.8742139561411</v>
+        <v>195.5227035320165</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.9597791677129</v>
+        <v>267.5227888252797</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.780459892825</v>
+        <v>241.9907893304655</v>
       </c>
       <c r="AD9" t="n">
-        <v>146874.2139561411</v>
+        <v>195522.7035320165</v>
       </c>
       <c r="AE9" t="n">
-        <v>200959.7791677129</v>
+        <v>267522.7888252797</v>
       </c>
       <c r="AF9" t="n">
         <v>1.473686238252428e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>181780.459892825</v>
+        <v>241990.7893304655</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.1197754215544</v>
+        <v>194.7682649974297</v>
       </c>
       <c r="AB10" t="n">
-        <v>199.9275230812127</v>
+        <v>266.4905327387795</v>
       </c>
       <c r="AC10" t="n">
-        <v>180.8467208784395</v>
+        <v>241.0570503160801</v>
       </c>
       <c r="AD10" t="n">
-        <v>146119.7754215543</v>
+        <v>194768.2649974297</v>
       </c>
       <c r="AE10" t="n">
-        <v>199927.5230812127</v>
+        <v>266490.5327387794</v>
       </c>
       <c r="AF10" t="n">
         <v>1.482175866324394e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>180846.7208784395</v>
+        <v>241057.05031608</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>145.9950933098935</v>
+        <v>194.6435828857688</v>
       </c>
       <c r="AB11" t="n">
-        <v>199.7569275154518</v>
+        <v>266.3199371730185</v>
       </c>
       <c r="AC11" t="n">
-        <v>180.6924067140424</v>
+        <v>240.9027361516829</v>
       </c>
       <c r="AD11" t="n">
-        <v>145995.0933098935</v>
+        <v>194643.5828857688</v>
       </c>
       <c r="AE11" t="n">
-        <v>199756.9275154518</v>
+        <v>266319.9371730185</v>
       </c>
       <c r="AF11" t="n">
         <v>1.482175866324394e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>180692.4067140424</v>
+        <v>240902.7361516829</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9275451862073</v>
+        <v>185.0668998528049</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.8266463873547</v>
+        <v>253.2166969538865</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9049453988605</v>
+        <v>229.0500507885476</v>
       </c>
       <c r="AD2" t="n">
-        <v>121927.5451862073</v>
+        <v>185066.8998528049</v>
       </c>
       <c r="AE2" t="n">
-        <v>166826.6463873547</v>
+        <v>253216.6969538865</v>
       </c>
       <c r="AF2" t="n">
         <v>3.32349823233719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>150904.9453988606</v>
+        <v>229050.0507885476</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.0100853185128</v>
+        <v>221.6355780926756</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.7740784638738</v>
+        <v>303.2515758178757</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.2265172912559</v>
+        <v>274.3096710381671</v>
       </c>
       <c r="AD2" t="n">
-        <v>165010.0853185128</v>
+        <v>221635.5780926756</v>
       </c>
       <c r="AE2" t="n">
-        <v>225774.0784638738</v>
+        <v>303251.5758178757</v>
       </c>
       <c r="AF2" t="n">
         <v>1.663699230284327e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>204226.5172912559</v>
+        <v>274309.6710381671</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2328914539322</v>
+        <v>194.7900533905334</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.1363404919536</v>
+        <v>266.52034457946</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0854336099759</v>
+        <v>241.0840169565272</v>
       </c>
       <c r="AD3" t="n">
-        <v>138232.8914539322</v>
+        <v>194790.0533905334</v>
       </c>
       <c r="AE3" t="n">
-        <v>189136.3404919536</v>
+        <v>266520.34457946</v>
       </c>
       <c r="AF3" t="n">
         <v>1.909954862005902e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>171085.4336099759</v>
+        <v>241084.0169565272</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.7409406802587</v>
+        <v>182.3654224245643</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.044302337449</v>
+        <v>249.5204163557969</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.6246355881057</v>
+        <v>225.706538022976</v>
       </c>
       <c r="AD4" t="n">
-        <v>125740.9406802587</v>
+        <v>182365.4224245643</v>
       </c>
       <c r="AE4" t="n">
-        <v>172044.302337449</v>
+        <v>249520.4163557969</v>
       </c>
       <c r="AF4" t="n">
         <v>2.000885488537943e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.82175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>155624.6355881057</v>
+        <v>225706.538022976</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.1281995165965</v>
+        <v>181.7526812609021</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.2059228450944</v>
+        <v>248.6820368634423</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.8662698578281</v>
+        <v>224.9481722926985</v>
       </c>
       <c r="AD5" t="n">
-        <v>125128.1995165964</v>
+        <v>181752.6812609021</v>
       </c>
       <c r="AE5" t="n">
-        <v>171205.9228450944</v>
+        <v>248682.0368634423</v>
       </c>
       <c r="AF5" t="n">
         <v>2.020273043402565e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.71759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>154866.2698578281</v>
+        <v>224948.1722926985</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.7080214660542</v>
+        <v>253.5253373022042</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.4621519463088</v>
+        <v>346.8845512452148</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.0812027080096</v>
+        <v>313.7783765300005</v>
       </c>
       <c r="AD2" t="n">
-        <v>186708.0214660542</v>
+        <v>253525.3373022042</v>
       </c>
       <c r="AE2" t="n">
-        <v>255462.1519463088</v>
+        <v>346884.5512452148</v>
       </c>
       <c r="AF2" t="n">
         <v>1.345696652227233e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.3287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>231081.2027080096</v>
+        <v>313778.3765300005</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8034019628812</v>
+        <v>212.6197067691741</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.4946469576444</v>
+        <v>290.9156629208962</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.455157844559</v>
+        <v>263.151080354509</v>
       </c>
       <c r="AD3" t="n">
-        <v>145803.4019628812</v>
+        <v>212619.7067691741</v>
       </c>
       <c r="AE3" t="n">
-        <v>199494.6469576444</v>
+        <v>290915.6629208963</v>
       </c>
       <c r="AF3" t="n">
         <v>1.612213143128609e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.96759259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>180455.1578445589</v>
+        <v>263151.0803545089</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.0017355441761</v>
+        <v>199.2299380124232</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.2930392458891</v>
+        <v>272.595190593012</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.7499842723096</v>
+        <v>246.5790881926477</v>
       </c>
       <c r="AD4" t="n">
-        <v>142001.7355441761</v>
+        <v>199229.9380124232</v>
       </c>
       <c r="AE4" t="n">
-        <v>194293.0392458891</v>
+        <v>272595.190593012</v>
       </c>
       <c r="AF4" t="n">
         <v>1.713227458987314e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>175749.9842723096</v>
+        <v>246579.0881926477</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.4406053403123</v>
+        <v>187.7361276162639</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.474590859903</v>
+        <v>256.8688521378673</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.4412263989453</v>
+        <v>232.3536494076023</v>
       </c>
       <c r="AD5" t="n">
-        <v>130440.6053403123</v>
+        <v>187736.1276162639</v>
       </c>
       <c r="AE5" t="n">
-        <v>178474.590859903</v>
+        <v>256868.8521378673</v>
       </c>
       <c r="AF5" t="n">
         <v>1.755536160400256e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9837962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>161441.2263989453</v>
+        <v>232353.6494076024</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.1089630049449</v>
+        <v>186.4044852808965</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.6525790687407</v>
+        <v>255.0468403467049</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.7931048559212</v>
+        <v>230.7055278645784</v>
       </c>
       <c r="AD6" t="n">
-        <v>129108.9630049449</v>
+        <v>186404.4852808965</v>
       </c>
       <c r="AE6" t="n">
-        <v>176652.5790687407</v>
+        <v>255046.8403467049</v>
       </c>
       <c r="AF6" t="n">
         <v>1.781931191136018e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.82175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>159793.1048559212</v>
+        <v>230705.5278645784</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.7530402728879</v>
+        <v>186.0485625488396</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.1655898845378</v>
+        <v>254.5598511625021</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.3525932359649</v>
+        <v>230.2650162446221</v>
       </c>
       <c r="AD7" t="n">
-        <v>128753.040272888</v>
+        <v>186048.5625488395</v>
       </c>
       <c r="AE7" t="n">
-        <v>176165.5898845378</v>
+        <v>254559.8511625021</v>
       </c>
       <c r="AF7" t="n">
         <v>1.792962447668262e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>159352.5932359649</v>
+        <v>230265.0162446221</v>
       </c>
     </row>
   </sheetData>
